--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J319"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11375,6 +11375,218 @@
         <v>395.6254545454545</v>
       </c>
       <c r="J319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>384.29</v>
+      </c>
+      <c r="C320" t="n">
+        <v>392.447619047619</v>
+      </c>
+      <c r="D320" t="n">
+        <v>390.19</v>
+      </c>
+      <c r="E320" t="n">
+        <v>394.7876190476191</v>
+      </c>
+      <c r="F320" t="n">
+        <v>396.1627272727272</v>
+      </c>
+      <c r="G320" t="n">
+        <v>395.047619047619</v>
+      </c>
+      <c r="H320" t="n">
+        <v>390.67</v>
+      </c>
+      <c r="I320" t="n">
+        <v>400.5454545454546</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>399.51</v>
+      </c>
+      <c r="C321" t="n">
+        <v>392.4766666666667</v>
+      </c>
+      <c r="D321" t="n">
+        <v>399.86</v>
+      </c>
+      <c r="E321" t="n">
+        <v>401.7666666666667</v>
+      </c>
+      <c r="F321" t="n">
+        <v>383.1827272727273</v>
+      </c>
+      <c r="G321" t="n">
+        <v>387.2966666666667</v>
+      </c>
+      <c r="H321" t="n">
+        <v>397.515</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="n">
+        <v>389.9852380952381</v>
+      </c>
+      <c r="D322" t="n">
+        <v>393.1515384615385</v>
+      </c>
+      <c r="E322" t="n">
+        <v>395.8352380952381</v>
+      </c>
+      <c r="F322" t="n">
+        <v>394.4636363636364</v>
+      </c>
+      <c r="G322" t="n">
+        <v>393.1652380952381</v>
+      </c>
+      <c r="H322" t="n">
+        <v>389.31</v>
+      </c>
+      <c r="I322" t="n">
+        <v>392.7572727272727</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>386.9</v>
+      </c>
+      <c r="C323" t="n">
+        <v>389.6385714285714</v>
+      </c>
+      <c r="D323" t="n">
+        <v>395.2992307692308</v>
+      </c>
+      <c r="E323" t="n">
+        <v>402.1685714285715</v>
+      </c>
+      <c r="F323" t="n">
+        <v>402.6818181818182</v>
+      </c>
+      <c r="G323" t="n">
+        <v>393.9385714285714</v>
+      </c>
+      <c r="H323" t="n">
+        <v>394.645</v>
+      </c>
+      <c r="I323" t="n">
+        <v>407.2436363636364</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="C324" t="n">
+        <v>395.7509523809524</v>
+      </c>
+      <c r="D324" t="n">
+        <v>409.2569230769231</v>
+      </c>
+      <c r="E324" t="n">
+        <v>405.2109523809524</v>
+      </c>
+      <c r="F324" t="n">
+        <v>405.0518181818182</v>
+      </c>
+      <c r="G324" t="n">
+        <v>404.1009523809525</v>
+      </c>
+      <c r="H324" t="n">
+        <v>403.24</v>
+      </c>
+      <c r="I324" t="n">
+        <v>407.1036363636364</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>387.11</v>
+      </c>
+      <c r="C325" t="n">
+        <v>388.7638095238095</v>
+      </c>
+      <c r="D325" t="n">
+        <v>388.3323076923077</v>
+      </c>
+      <c r="E325" t="n">
+        <v>396.3438095238095</v>
+      </c>
+      <c r="F325" t="n">
+        <v>395.8036363636364</v>
+      </c>
+      <c r="G325" t="n">
+        <v>394.5938095238095</v>
+      </c>
+      <c r="H325" t="n">
+        <v>392.895</v>
+      </c>
+      <c r="I325" t="n">
+        <v>402.2372727272728</v>
+      </c>
+      <c r="J325" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11391,7 +11603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B334"/>
+  <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14739,6 +14951,66 @@
       </c>
       <c r="B334" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -14907,28 +15179,28 @@
         <v>0.0572</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1162491952522718</v>
+        <v>-0.1221156260266282</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00914564709589083</v>
+        <v>0.01043377277898783</v>
       </c>
       <c r="M2" t="n">
-        <v>7.066458639422926</v>
+        <v>7.042355137874289</v>
       </c>
       <c r="N2" t="n">
-        <v>76.72652350057518</v>
+        <v>75.95289745174679</v>
       </c>
       <c r="O2" t="n">
-        <v>8.759367756897479</v>
+        <v>8.715095951952955</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2561524890256</v>
+        <v>395.3119231692885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14984,28 +15256,28 @@
         <v>0.1153</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1049363159789097</v>
+        <v>-0.1122072460347894</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K3" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01360277044066061</v>
+        <v>0.01619245850965689</v>
       </c>
       <c r="M3" t="n">
-        <v>5.043493363949497</v>
+        <v>4.987081306690527</v>
       </c>
       <c r="N3" t="n">
-        <v>41.64443199717861</v>
+        <v>40.93163154887555</v>
       </c>
       <c r="O3" t="n">
-        <v>6.453249723757684</v>
+        <v>6.397783330879184</v>
       </c>
       <c r="P3" t="n">
-        <v>395.8721468628694</v>
+        <v>395.9418459453247</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15061,28 +15333,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03418341972400918</v>
+        <v>-0.03109157484337961</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001041122335747935</v>
+        <v>0.0008861915357405437</v>
       </c>
       <c r="M4" t="n">
-        <v>5.706795569683862</v>
+        <v>5.703080193928187</v>
       </c>
       <c r="N4" t="n">
-        <v>57.8371333191979</v>
+        <v>57.6586695785997</v>
       </c>
       <c r="O4" t="n">
-        <v>7.605072867448273</v>
+        <v>7.593330598531826</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1360514300521</v>
+        <v>396.1061516593687</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15138,28 +15410,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0573149459337534</v>
+        <v>-0.03719631621651531</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K5" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002392252521109639</v>
+        <v>0.00104479643366584</v>
       </c>
       <c r="M5" t="n">
-        <v>5.958482646567609</v>
+        <v>5.923169943662178</v>
       </c>
       <c r="N5" t="n">
-        <v>69.98891988511552</v>
+        <v>69.3182360433936</v>
       </c>
       <c r="O5" t="n">
-        <v>8.365938075620422</v>
+        <v>8.325757385571213</v>
       </c>
       <c r="P5" t="n">
-        <v>395.9431552260799</v>
+        <v>395.7480393875596</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15215,28 +15487,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01796405963754429</v>
+        <v>-0.010811090912813</v>
       </c>
       <c r="J6" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K6" t="n">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002419711617459575</v>
+        <v>9.031029825024017e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.221436243553706</v>
+        <v>6.205133703841093</v>
       </c>
       <c r="N6" t="n">
-        <v>67.66740312952064</v>
+        <v>67.34583634874342</v>
       </c>
       <c r="O6" t="n">
-        <v>8.226019883851524</v>
+        <v>8.206450898454424</v>
       </c>
       <c r="P6" t="n">
-        <v>394.9464113596796</v>
+        <v>394.8765041520123</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15292,28 +15564,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04498386076007898</v>
+        <v>-0.03064353020788127</v>
       </c>
       <c r="J7" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K7" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001564409364060326</v>
+        <v>0.000752176795751569</v>
       </c>
       <c r="M7" t="n">
-        <v>6.343249590609569</v>
+        <v>6.299841302593523</v>
       </c>
       <c r="N7" t="n">
-        <v>65.53151724071093</v>
+        <v>64.9181951403182</v>
       </c>
       <c r="O7" t="n">
-        <v>8.095153935578429</v>
+        <v>8.057182829023938</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3827362031879</v>
+        <v>392.2426806640704</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15369,28 +15641,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1339178479007572</v>
+        <v>-0.1168263330915348</v>
       </c>
       <c r="J8" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K8" t="n">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01782041019986202</v>
+        <v>0.01402968778689118</v>
       </c>
       <c r="M8" t="n">
-        <v>5.40492014860693</v>
+        <v>5.382322029416724</v>
       </c>
       <c r="N8" t="n">
-        <v>49.77845931248816</v>
+        <v>49.52748893400423</v>
       </c>
       <c r="O8" t="n">
-        <v>7.055385128572937</v>
+        <v>7.037576922066588</v>
       </c>
       <c r="P8" t="n">
-        <v>393.9788791644514</v>
+        <v>393.8108718936134</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -15446,28 +15718,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1196136852689961</v>
+        <v>-0.09989442182083993</v>
       </c>
       <c r="J9" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K9" t="n">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007354021936347488</v>
+        <v>0.005268378472395696</v>
       </c>
       <c r="M9" t="n">
-        <v>7.420871045613847</v>
+        <v>7.410253939964447</v>
       </c>
       <c r="N9" t="n">
-        <v>98.5431648231726</v>
+        <v>97.95304093163257</v>
       </c>
       <c r="O9" t="n">
-        <v>9.92689099482676</v>
+        <v>9.897122861298255</v>
       </c>
       <c r="P9" t="n">
-        <v>398.988950247541</v>
+        <v>398.7942341553894</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -15504,7 +15776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J319"/>
+  <dimension ref="A1:J325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30988,6 +31260,310 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>-36.60212089788164,175.54311068094225</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>-36.60252777367156,175.54370189427257</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-36.60277043588531,175.54444153503667</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>-36.602895061783315,175.5452691822007</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>-36.60292431905455,175.5461116537577</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>-36.60291860541552,175.54696897051693</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>-36.602859995322106,175.5478220916066</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>-36.60259506872014,175.54864009923728</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-36.60202487689577,175.54323208860015</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-36.602527552708644,175.54370206818157</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-36.60268685649505,175.54447202491622</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>-36.60283275585638,175.54527966122</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>-36.603041259421644,175.54611162066857</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>-36.60298806799213,175.54697784848815</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>-36.60279980364307,175.54780545362325</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-36.602546504805815,175.54368715191418</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-36.60274483882508,175.5444508728871</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>-36.60288570909237,175.5452707551985</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>-36.60293962662898,175.54611164942568</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>-36.60293547495956,175.54697112660165</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>-36.602871954515734,175.54782539733057</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>-36.602662581161596,175.54866380447046</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-36.602104431741665,175.54313150054236</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-36.6025491418712,175.5436850764085</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-36.60272627596962,175.54445764464415</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>-36.60282916782399,175.54528026467835</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>-36.60286558678228,175.54611167038033</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>-36.60292854449168,175.5469702408232</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>-36.602825041060484,175.54781242966246</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>-36.60253700502028,175.54861971172093</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-36.602044497487526,175.54320728062098</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-36.60250264547751,175.54372167143043</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-36.60260563734722,175.5445016537154</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>-36.60280200675881,175.5452848327996</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>-36.602844234804195,175.5461116764241</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>-36.60283747114334,175.5469586008183</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>-36.60274946070913,175.54779153801994</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>-36.60253821862101,175.54862013784404</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-36.602103106879696,175.5431331756822</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-36.602555796114345,175.54367983917726</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-36.602786492222776,175.54443567765486</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>-36.60288116878604,175.5452715188173</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>-36.60292755420272,175.54611165284211</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>-36.60292267237112,175.5469694903116</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>-36.60284042972928,175.54781668334738</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>-36.602580403065716,175.5486349497814</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -15024,7 +15024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15115,35 +15115,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15202,27 +15207,28 @@
       <c r="P2" t="n">
         <v>395.3119231692885</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.54004515728656 -36.60454529551203, 175.54739041901092 -36.598735852157965)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.5400451572866</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.60454529551203</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.5473904190109</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.59873585215797</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.5437177881487</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.601640573835</v>
       </c>
     </row>
@@ -15279,27 +15285,28 @@
       <c r="P3" t="n">
         <v>395.9418459453247</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.54135220900386 -36.60551307098749, 175.54686332147367 -36.59851073108208)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.5413522090039</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.60551307098749</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.5468633214737</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.59851073108208</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.5441077652388</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.60201190103479</v>
       </c>
     </row>
@@ -15356,27 +15363,28 @@
       <c r="P4" t="n">
         <v>396.1061516593687</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.54321120020833 -36.606142906552556, 175.54611267144372 -36.598189231922476)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.5432112002083</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.60614290655256</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.5461126714437</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.59818923192248</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.544661935826</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.60216606923751</v>
       </c>
     </row>
@@ -15433,27 +15441,28 @@
       <c r="P5" t="n">
         <v>395.7480393875596</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.54467638707155 -36.60641955397242, 175.54605795445767 -36.598204962727806)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.5446763870715</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.60641955397242</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.5460579544577</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.59820496272781</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.5453671707646</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.60231225835011</v>
       </c>
     </row>
@@ -15510,27 +15519,28 @@
       <c r="P6" t="n">
         <v>394.8765041520123</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.54611064855726 -36.606493456393586, 175.5461129981536 -36.598203941055736)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.5461106485573</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.60649345639359</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.5461129981536</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.59820394105574</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.5461118233554</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.60234869872466</v>
       </c>
     </row>
@@ -15587,27 +15597,28 @@
       <c r="P7" t="n">
         <v>392.2426806640704</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.54742148460213 -36.60645894527175, 175.546367594626 -36.59821298813905)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.5474214846021</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.60645894527175</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.546367594626</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.59821298813905</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.5468945396141</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.6023359667054</v>
       </c>
     </row>
@@ -15664,27 +15675,28 @@
       <c r="P8" t="n">
         <v>393.8108718936134</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.5487717314612 -36.606295355325734, 175.54653513159292 -36.5982038091085)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.5487717314612</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.60629535532573</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.5465351315929</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.5982038091085</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.5476534315271</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.60224958221711</v>
       </c>
     </row>
@@ -15741,27 +15753,28 @@
       <c r="P9" t="n">
         <v>398.7942341553894</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.5498593149909 -36.6060672180964, 175.54705848223364 -36.59809032480552)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.5498593149909</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.6060672180964</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.5470584822336</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.59809032480552</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.5484588986123</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.60207877145096</v>
       </c>
     </row>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J325"/>
+  <dimension ref="A1:J328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11589,6 +11589,114 @@
       <c r="J325" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>386.17</v>
+      </c>
+      <c r="C326" t="n">
+        <v>395.99</v>
+      </c>
+      <c r="D326" t="n">
+        <v>395.4284615384615</v>
+      </c>
+      <c r="E326" t="n">
+        <v>398.32</v>
+      </c>
+      <c r="F326" t="n">
+        <v>397.4618181818182</v>
+      </c>
+      <c r="G326" t="n">
+        <v>393.58</v>
+      </c>
+      <c r="H326" t="n">
+        <v>391.73</v>
+      </c>
+      <c r="I326" t="n">
+        <v>394.0736363636364</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>407.59</v>
+      </c>
+      <c r="C327" t="n">
+        <v>397.6547619047619</v>
+      </c>
+      <c r="D327" t="n">
+        <v>407.5784615384616</v>
+      </c>
+      <c r="E327" t="n">
+        <v>404.9947619047619</v>
+      </c>
+      <c r="F327" t="n">
+        <v>404.3163636363636</v>
+      </c>
+      <c r="G327" t="n">
+        <v>402.9947619047619</v>
+      </c>
+      <c r="H327" t="n">
+        <v>399.15</v>
+      </c>
+      <c r="I327" t="n">
+        <v>410.8227272727273</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>391.18</v>
+      </c>
+      <c r="C328" t="n">
+        <v>387.4038095238095</v>
+      </c>
+      <c r="D328" t="n">
+        <v>385.9607692307693</v>
+      </c>
+      <c r="E328" t="n">
+        <v>393.4138095238095</v>
+      </c>
+      <c r="F328" t="n">
+        <v>391.7854545454546</v>
+      </c>
+      <c r="G328" t="n">
+        <v>387.2038095238095</v>
+      </c>
+      <c r="H328" t="n">
+        <v>387.285</v>
+      </c>
+      <c r="I328" t="n">
+        <v>392.210909090909</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11603,7 +11711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B340"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15011,6 +15119,36 @@
       </c>
       <c r="B340" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -15184,28 +15322,28 @@
         <v>0.0572</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1221156260266282</v>
+        <v>-0.1155692150725052</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K2" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01043377277898783</v>
+        <v>0.009466374848055681</v>
       </c>
       <c r="M2" t="n">
-        <v>7.042355137874289</v>
+        <v>7.050864802761158</v>
       </c>
       <c r="N2" t="n">
-        <v>75.95289745174679</v>
+        <v>76.1318394794387</v>
       </c>
       <c r="O2" t="n">
-        <v>8.715095951952955</v>
+        <v>8.725356123359017</v>
       </c>
       <c r="P2" t="n">
-        <v>395.3119231692885</v>
+        <v>395.2488307389442</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15262,28 +15400,28 @@
         <v>0.1153</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1122072460347894</v>
+        <v>-0.1109807906270561</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01619245850965689</v>
+        <v>0.01612563688929847</v>
       </c>
       <c r="M3" t="n">
-        <v>4.987081306690527</v>
+        <v>4.981171090462952</v>
       </c>
       <c r="N3" t="n">
-        <v>40.93163154887555</v>
+        <v>40.7156299952349</v>
       </c>
       <c r="O3" t="n">
-        <v>6.397783330879184</v>
+        <v>6.380880032976243</v>
       </c>
       <c r="P3" t="n">
-        <v>395.9418459453247</v>
+        <v>395.9301382821732</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15340,28 +15478,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03109157484337961</v>
+        <v>-0.02906521277561035</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008861915357405437</v>
+        <v>0.000781156371796099</v>
       </c>
       <c r="M4" t="n">
-        <v>5.703080193928187</v>
+        <v>5.719668703280529</v>
       </c>
       <c r="N4" t="n">
-        <v>57.6586695785997</v>
+        <v>57.87834953092299</v>
       </c>
       <c r="O4" t="n">
-        <v>7.593330598531826</v>
+        <v>7.607782168997939</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1061516593687</v>
+        <v>396.0865994683333</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15418,28 +15556,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03719631621651531</v>
+        <v>-0.02879660346379011</v>
       </c>
       <c r="J5" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K5" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00104479643366584</v>
+        <v>0.0006370825885353426</v>
       </c>
       <c r="M5" t="n">
-        <v>5.923169943662178</v>
+        <v>5.910715636377914</v>
       </c>
       <c r="N5" t="n">
-        <v>69.3182360433936</v>
+        <v>69.01065918400899</v>
       </c>
       <c r="O5" t="n">
-        <v>8.325757385571213</v>
+        <v>8.307265445621018</v>
       </c>
       <c r="P5" t="n">
-        <v>395.7480393875596</v>
+        <v>395.6657897736212</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15496,28 +15634,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.010811090912813</v>
+        <v>-0.004235946567446287</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K6" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>9.031029825024017e-05</v>
+        <v>1.410110182664681e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.205133703841093</v>
+        <v>6.192769570620478</v>
       </c>
       <c r="N6" t="n">
-        <v>67.34583634874342</v>
+        <v>67.0393904628817</v>
       </c>
       <c r="O6" t="n">
-        <v>8.206450898454424</v>
+        <v>8.187758573802826</v>
       </c>
       <c r="P6" t="n">
-        <v>394.8765041520123</v>
+        <v>394.8119152506847</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15574,28 +15712,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03064353020788127</v>
+        <v>-0.02423551809680679</v>
       </c>
       <c r="J7" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K7" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000752176795751569</v>
+        <v>0.0004774560315269349</v>
       </c>
       <c r="M7" t="n">
-        <v>6.299841302593523</v>
+        <v>6.292161236923476</v>
       </c>
       <c r="N7" t="n">
-        <v>64.9181951403182</v>
+        <v>64.78322379412167</v>
       </c>
       <c r="O7" t="n">
-        <v>8.057182829023938</v>
+        <v>8.048802631082568</v>
       </c>
       <c r="P7" t="n">
-        <v>392.2426806640704</v>
+        <v>392.179622599814</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15652,28 +15790,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1168263330915348</v>
+        <v>-0.1129664018763299</v>
       </c>
       <c r="J8" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K8" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01402968778689118</v>
+        <v>0.01334867635033632</v>
       </c>
       <c r="M8" t="n">
-        <v>5.382322029416724</v>
+        <v>5.370272514573139</v>
       </c>
       <c r="N8" t="n">
-        <v>49.52748893400423</v>
+        <v>49.3046088299298</v>
       </c>
       <c r="O8" t="n">
-        <v>7.037576922066588</v>
+        <v>7.021724063926879</v>
       </c>
       <c r="P8" t="n">
-        <v>393.8108718936134</v>
+        <v>393.7726283594244</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15730,28 +15868,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09989442182083993</v>
+        <v>-0.09446669491208409</v>
       </c>
       <c r="J9" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K9" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005268378472395696</v>
+        <v>0.004776233730093726</v>
       </c>
       <c r="M9" t="n">
-        <v>7.410253939964447</v>
+        <v>7.403851011554304</v>
       </c>
       <c r="N9" t="n">
-        <v>97.95304093163257</v>
+        <v>97.75456797350751</v>
       </c>
       <c r="O9" t="n">
-        <v>9.897122861298255</v>
+        <v>9.88709097629366</v>
       </c>
       <c r="P9" t="n">
-        <v>398.7942341553894</v>
+        <v>398.7401180803618</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15789,7 +15927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J325"/>
+  <dimension ref="A1:J328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31577,6 +31715,162 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-36.602109037214106,175.5431256774367</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-36.602500827061164,175.54372310261536</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-36.60272515900695,175.54445805211367</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-36.60286352620987,175.54527448606197</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-36.60291261518942,175.54611165706993</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-36.602931757941384,175.546970651532</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>-36.6028506741858,175.5478195150872</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>-36.60265117016463,175.54865979779316</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-36.60197390118828,175.54329654142606</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-36.602488163348504,175.5437330695907</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-36.60262014456611,175.54449636147666</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-36.60280393681417,175.54528450819072</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-36.60285086071532,175.54611167454857</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-36.60284738461468,175.54695986784876</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>-36.602785426229026,175.54780147947073</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>-36.602505979395694,175.54860881791635</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-36.60207742978844,175.54316564147652</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-36.60256614152405,175.54367169680617</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-36.60280698981599,175.5444282000913</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-36.60290732656209,175.54526711942813</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-36.60296375510097,175.5461116425978</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-36.602988900160355,175.5469779548472</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>-36.60288976140302,175.54783031945843</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>-36.602667317355724,175.5486654674633</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J328"/>
+  <dimension ref="A1:J329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11695,6 +11695,42 @@
         <v>392.210909090909</v>
       </c>
       <c r="J328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>397.01</v>
+      </c>
+      <c r="C329" t="n">
+        <v>389.1385714285714</v>
+      </c>
+      <c r="D329" t="n">
+        <v>389.6284615384615</v>
+      </c>
+      <c r="E329" t="n">
+        <v>384.0785714285714</v>
+      </c>
+      <c r="F329" t="n">
+        <v>382.7527272727273</v>
+      </c>
+      <c r="G329" t="n">
+        <v>376.4285714285714</v>
+      </c>
+      <c r="H329" t="n">
+        <v>385.18</v>
+      </c>
+      <c r="I329" t="n">
+        <v>386.8254545454545</v>
+      </c>
+      <c r="J329" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11711,7 +11747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15149,6 +15185,16 @@
       </c>
       <c r="B343" t="n">
         <v>-0.05</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -15322,28 +15368,28 @@
         <v>0.0572</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1155692150725052</v>
+        <v>-0.1118700956882331</v>
       </c>
       <c r="J2" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K2" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009466374848055681</v>
+        <v>0.008941788935136308</v>
       </c>
       <c r="M2" t="n">
-        <v>7.050864802761158</v>
+        <v>7.043592338544633</v>
       </c>
       <c r="N2" t="n">
-        <v>76.1318394794387</v>
+        <v>75.9205807402749</v>
       </c>
       <c r="O2" t="n">
-        <v>8.725356123359017</v>
+        <v>8.713241689536387</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2488307389442</v>
+        <v>395.2129887063506</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15400,28 +15446,28 @@
         <v>0.1153</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1109807906270561</v>
+        <v>-0.113749265722511</v>
       </c>
       <c r="J3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K3" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01612563688929847</v>
+        <v>0.01703260299309695</v>
       </c>
       <c r="M3" t="n">
-        <v>4.981171090462952</v>
+        <v>4.97629968220808</v>
       </c>
       <c r="N3" t="n">
-        <v>40.7156299952349</v>
+        <v>40.62676969361745</v>
       </c>
       <c r="O3" t="n">
-        <v>6.380880032976243</v>
+        <v>6.373913216668192</v>
       </c>
       <c r="P3" t="n">
-        <v>395.9301382821732</v>
+        <v>395.9571773722871</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15478,28 +15524,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02906521277561035</v>
+        <v>-0.03297595334189701</v>
       </c>
       <c r="J4" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000781156371796099</v>
+        <v>0.001010947913405058</v>
       </c>
       <c r="M4" t="n">
-        <v>5.719668703280529</v>
+        <v>5.717736820670635</v>
       </c>
       <c r="N4" t="n">
-        <v>57.87834953092299</v>
+        <v>57.79187149407227</v>
       </c>
       <c r="O4" t="n">
-        <v>7.607782168997939</v>
+        <v>7.602096519649844</v>
       </c>
       <c r="P4" t="n">
-        <v>396.0865994683333</v>
+        <v>396.1249835729504</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15556,28 +15602,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02879660346379011</v>
+        <v>-0.03622983693013158</v>
       </c>
       <c r="J5" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006370825885353426</v>
+        <v>0.001009912889226472</v>
       </c>
       <c r="M5" t="n">
-        <v>5.910715636377914</v>
+        <v>5.929852009519704</v>
       </c>
       <c r="N5" t="n">
-        <v>69.01065918400899</v>
+        <v>69.16975374638858</v>
       </c>
       <c r="O5" t="n">
-        <v>8.307265445621018</v>
+        <v>8.316835560860186</v>
       </c>
       <c r="P5" t="n">
-        <v>395.6657897736212</v>
+        <v>395.7391796624625</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15634,28 +15680,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.004235946567446287</v>
+        <v>-0.01234236480409408</v>
       </c>
       <c r="J6" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K6" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L6" t="n">
-        <v>1.410110182664681e-05</v>
+        <v>0.0001197590813316607</v>
       </c>
       <c r="M6" t="n">
-        <v>6.192769570620478</v>
+        <v>6.213380244178349</v>
       </c>
       <c r="N6" t="n">
-        <v>67.0393904628817</v>
+        <v>67.28444458508318</v>
       </c>
       <c r="O6" t="n">
-        <v>8.187758573802826</v>
+        <v>8.202709588000978</v>
       </c>
       <c r="P6" t="n">
-        <v>394.8119152506847</v>
+        <v>394.8922457190881</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15712,28 +15758,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02423551809680679</v>
+        <v>-0.03463337728473547</v>
       </c>
       <c r="J7" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K7" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004774560315269349</v>
+        <v>0.0009704657492564106</v>
       </c>
       <c r="M7" t="n">
-        <v>6.292161236923476</v>
+        <v>6.328237259766013</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78322379412167</v>
+        <v>65.32565507961947</v>
       </c>
       <c r="O7" t="n">
-        <v>8.048802631082568</v>
+        <v>8.082428785929356</v>
       </c>
       <c r="P7" t="n">
-        <v>392.179622599814</v>
+        <v>392.2828770078244</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15790,28 +15836,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1129664018763299</v>
+        <v>-0.1168773776494115</v>
       </c>
       <c r="J8" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K8" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01334867635033632</v>
+        <v>0.01434990416090853</v>
       </c>
       <c r="M8" t="n">
-        <v>5.370272514573139</v>
+        <v>5.371809398696191</v>
       </c>
       <c r="N8" t="n">
-        <v>49.3046088299298</v>
+        <v>49.24702583545647</v>
       </c>
       <c r="O8" t="n">
-        <v>7.021724063926879</v>
+        <v>7.017622520159978</v>
       </c>
       <c r="P8" t="n">
-        <v>393.7726283594244</v>
+        <v>393.8117424066547</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15868,28 +15914,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09446669491208409</v>
+        <v>-0.100660271489192</v>
       </c>
       <c r="J9" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K9" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004776233730093726</v>
+        <v>0.005441330049793525</v>
       </c>
       <c r="M9" t="n">
-        <v>7.403851011554304</v>
+        <v>7.412230986592967</v>
       </c>
       <c r="N9" t="n">
-        <v>97.75456797350751</v>
+        <v>97.72680736981914</v>
       </c>
       <c r="O9" t="n">
-        <v>9.88709097629366</v>
+        <v>9.885686995339228</v>
       </c>
       <c r="P9" t="n">
-        <v>398.7401180803618</v>
+        <v>398.8023572354955</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15927,7 +15973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J328"/>
+  <dimension ref="A1:J329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31871,6 +31917,58 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-36.60204064907602,175.54321214649568</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-36.602552945330835,175.54368208289048</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-36.6027752893538,175.5444397644826</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-36.60299066753975,175.5452531025704</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-36.60304513340911,175.54611161957257</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-36.60308546581303,175.54699029688004</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>-36.602908271771895,175.54783543604336</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>-36.602714001570156,175.54868185943758</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J329"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11733,6 +11733,42 @@
       <c r="J329" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>382.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>393.9080952380953</v>
+      </c>
+      <c r="D330" t="n">
+        <v>392.7669230769231</v>
+      </c>
+      <c r="E330" t="n">
+        <v>389.2780952380953</v>
+      </c>
+      <c r="F330" t="n">
+        <v>394.9054545454546</v>
+      </c>
+      <c r="G330" t="n">
+        <v>386.9180952380953</v>
+      </c>
+      <c r="H330" t="n">
+        <v>387.795</v>
+      </c>
+      <c r="I330" t="n">
+        <v>396.2309090909091</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11747,7 +11783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15195,6 +15231,16 @@
       </c>
       <c r="B344" t="n">
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -15368,28 +15414,28 @@
         <v>0.0572</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1118700956882331</v>
+        <v>-0.1197533972045606</v>
       </c>
       <c r="J2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008941788935136308</v>
+        <v>0.01026768187073068</v>
       </c>
       <c r="M2" t="n">
-        <v>7.043592338544633</v>
+        <v>7.051321954169572</v>
       </c>
       <c r="N2" t="n">
-        <v>75.9205807402749</v>
+        <v>76.01998679876263</v>
       </c>
       <c r="O2" t="n">
-        <v>8.713241689536387</v>
+        <v>8.718944133251608</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2129887063506</v>
+        <v>395.2896069511669</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15446,28 +15492,28 @@
         <v>0.1153</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.113749265722511</v>
+        <v>-0.1131377959892985</v>
       </c>
       <c r="J3" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01703260299309695</v>
+        <v>0.01697954786054656</v>
       </c>
       <c r="M3" t="n">
-        <v>4.97629968220808</v>
+        <v>4.962200172923486</v>
       </c>
       <c r="N3" t="n">
-        <v>40.62676969361745</v>
+        <v>40.4873704868444</v>
       </c>
       <c r="O3" t="n">
-        <v>6.373913216668192</v>
+        <v>6.362968685043515</v>
       </c>
       <c r="P3" t="n">
-        <v>395.9571773722871</v>
+        <v>395.9511869297714</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15524,28 +15570,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03297595334189701</v>
+        <v>-0.03468598627002881</v>
       </c>
       <c r="J4" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001010947913405058</v>
+        <v>0.001126392518072228</v>
       </c>
       <c r="M4" t="n">
-        <v>5.717736820670635</v>
+        <v>5.70617397964983</v>
       </c>
       <c r="N4" t="n">
-        <v>57.79187149407227</v>
+        <v>57.61827120919885</v>
       </c>
       <c r="O4" t="n">
-        <v>7.602096519649844</v>
+        <v>7.59067001055894</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1249835729504</v>
+        <v>396.141818204246</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15602,28 +15648,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03622983693013158</v>
+        <v>-0.04000029624040637</v>
       </c>
       <c r="J5" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001009912889226472</v>
+        <v>0.001238210127576522</v>
       </c>
       <c r="M5" t="n">
-        <v>5.929852009519704</v>
+        <v>5.929878207499282</v>
       </c>
       <c r="N5" t="n">
-        <v>69.16975374638858</v>
+        <v>69.03957209925188</v>
       </c>
       <c r="O5" t="n">
-        <v>8.316835560860186</v>
+        <v>8.309005481960636</v>
       </c>
       <c r="P5" t="n">
-        <v>395.7391796624625</v>
+        <v>395.776517086714</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15680,28 +15726,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01234236480409408</v>
+        <v>-0.01211917059574858</v>
       </c>
       <c r="J6" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001197590813316607</v>
+        <v>0.0001163258187768523</v>
       </c>
       <c r="M6" t="n">
-        <v>6.213380244178349</v>
+        <v>6.193968102044703</v>
       </c>
       <c r="N6" t="n">
-        <v>67.28444458508318</v>
+        <v>67.06346982852679</v>
       </c>
       <c r="O6" t="n">
-        <v>8.202709588000978</v>
+        <v>8.189228890959562</v>
       </c>
       <c r="P6" t="n">
-        <v>394.8922457190881</v>
+        <v>394.8900274554643</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15758,28 +15804,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03463337728473547</v>
+        <v>-0.03769364166686145</v>
       </c>
       <c r="J7" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009704657492564106</v>
+        <v>0.001156789499791033</v>
       </c>
       <c r="M7" t="n">
-        <v>6.328237259766013</v>
+        <v>6.323859143243713</v>
       </c>
       <c r="N7" t="n">
-        <v>65.32565507961947</v>
+        <v>65.17340526066158</v>
       </c>
       <c r="O7" t="n">
-        <v>8.082428785929356</v>
+        <v>8.073004723190838</v>
       </c>
       <c r="P7" t="n">
-        <v>392.2828770078244</v>
+        <v>392.3133565830503</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15836,28 +15882,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1168773776494115</v>
+        <v>-0.1189356188246329</v>
       </c>
       <c r="J8" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K8" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01434990416090853</v>
+        <v>0.01495244783969207</v>
       </c>
       <c r="M8" t="n">
-        <v>5.371809398696191</v>
+        <v>5.364137423753524</v>
       </c>
       <c r="N8" t="n">
-        <v>49.24702583545647</v>
+        <v>49.11277288716149</v>
       </c>
       <c r="O8" t="n">
-        <v>7.017622520159978</v>
+        <v>7.008050576812463</v>
       </c>
       <c r="P8" t="n">
-        <v>393.8117424066547</v>
+        <v>393.8323878255654</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15914,28 +15960,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.100660271489192</v>
+        <v>-0.1006492758652028</v>
       </c>
       <c r="J9" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005441330049793525</v>
+        <v>0.005478052145657997</v>
       </c>
       <c r="M9" t="n">
-        <v>7.412230986592967</v>
+        <v>7.388371658261407</v>
       </c>
       <c r="N9" t="n">
-        <v>97.72680736981914</v>
+        <v>97.41156051817363</v>
       </c>
       <c r="O9" t="n">
-        <v>9.885686995339228</v>
+        <v>9.869729505826065</v>
       </c>
       <c r="P9" t="n">
-        <v>398.8023572354955</v>
+        <v>398.8022464059149</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15973,7 +16019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J329"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19317,7 +19363,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-36.602026895735015,175.54322953601124</t>
+          <t>-36.60202689573502,175.54322953601124</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -21748,7 +21794,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>-36.60260869414516,175.54864488344617</t>
+          <t>-36.60260869414517,175.54864488344617</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -22394,7 +22440,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.60253956801968,175.54369261151976</t>
+          <t>-36.60253956801969,175.54369261151976</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -27340,7 +27386,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>-36.60261776462749,175.548648068308</t>
+          <t>-36.60261776462748,175.548648068308</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -31856,7 +31902,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>-36.602505979395694,175.54860881791635</t>
+          <t>-36.60250597939569,175.54860881791635</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -31966,6 +32012,58 @@
       <c r="J329" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-36.602134083408934,175.5430940093021</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-36.602516663945636,175.54371063818982</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-36.60274816311866,175.54444966017957</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-36.602944248434916,175.54526090965723</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-36.60293564616823,175.54611165055212</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-36.60299146067797,175.54697828210584</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>-36.60288527670551,175.54782907981118</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>-36.60263246968367,175.54865323160445</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11767,6 +11767,70 @@
         <v>396.2309090909091</v>
       </c>
       <c r="J330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="n">
+        <v>384.7642857142857</v>
+      </c>
+      <c r="D331" t="n">
+        <v>396.8207692307692</v>
+      </c>
+      <c r="E331" t="n">
+        <v>400.0242857142857</v>
+      </c>
+      <c r="F331" t="n">
+        <v>376.5845454545454</v>
+      </c>
+      <c r="G331" t="n">
+        <v>365.6642857142857</v>
+      </c>
+      <c r="H331" t="n">
+        <v>362.01</v>
+      </c>
+      <c r="I331" t="n">
+        <v>371.3390909090909</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>372.34</v>
+      </c>
+      <c r="C332" t="n">
+        <v>391.1438095238095</v>
+      </c>
+      <c r="D332" t="n">
+        <v>392.6976923076923</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="n">
+        <v>396.535</v>
+      </c>
+      <c r="I332" t="n">
+        <v>377.3581818181818</v>
+      </c>
+      <c r="J332" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11783,7 +11847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15241,6 +15305,26 @@
       </c>
       <c r="B345" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -15414,28 +15498,28 @@
         <v>0.0572</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1197533972045606</v>
+        <v>-0.1350728714814577</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01026768187073068</v>
+        <v>0.01288300731200098</v>
       </c>
       <c r="M2" t="n">
-        <v>7.051321954169572</v>
+        <v>7.093928001859675</v>
       </c>
       <c r="N2" t="n">
-        <v>76.01998679876263</v>
+        <v>77.23597422445182</v>
       </c>
       <c r="O2" t="n">
-        <v>8.718944133251608</v>
+        <v>8.788399980909597</v>
       </c>
       <c r="P2" t="n">
-        <v>395.2896069511669</v>
+        <v>395.4388020156887</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15492,28 +15576,28 @@
         <v>0.1153</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1131377959892985</v>
+        <v>-0.1200983232753202</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01697954786054656</v>
+        <v>0.01926114077013719</v>
       </c>
       <c r="M3" t="n">
-        <v>4.962200172923486</v>
+        <v>4.960291464790142</v>
       </c>
       <c r="N3" t="n">
-        <v>40.4873704868444</v>
+        <v>40.45251291044403</v>
       </c>
       <c r="O3" t="n">
-        <v>6.362968685043515</v>
+        <v>6.360228998270741</v>
       </c>
       <c r="P3" t="n">
-        <v>395.9511869297714</v>
+        <v>396.0194601155529</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15570,28 +15654,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03468598627002881</v>
+        <v>-0.03534354670552469</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001126392518072228</v>
+        <v>0.001186211335574949</v>
       </c>
       <c r="M4" t="n">
-        <v>5.70617397964983</v>
+        <v>5.681502705540578</v>
       </c>
       <c r="N4" t="n">
-        <v>57.61827120919885</v>
+        <v>57.26285065370261</v>
       </c>
       <c r="O4" t="n">
-        <v>7.59067001055894</v>
+        <v>7.567222122661829</v>
       </c>
       <c r="P4" t="n">
-        <v>396.141818204246</v>
+        <v>396.1483152509705</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15648,28 +15732,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04000029624040637</v>
+        <v>-0.03643319181165766</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001238210127576522</v>
+        <v>0.001033694239912175</v>
       </c>
       <c r="M5" t="n">
-        <v>5.929878207499282</v>
+        <v>5.926222704133766</v>
       </c>
       <c r="N5" t="n">
-        <v>69.03957209925188</v>
+        <v>68.90127706411381</v>
       </c>
       <c r="O5" t="n">
-        <v>8.309005481960636</v>
+        <v>8.300679313412475</v>
       </c>
       <c r="P5" t="n">
-        <v>395.776517086714</v>
+        <v>395.7411583432449</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15726,28 +15810,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01211917059574858</v>
+        <v>-0.0241635096127965</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K6" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001163258187768523</v>
+        <v>0.0004584777250159489</v>
       </c>
       <c r="M6" t="n">
-        <v>6.193968102044703</v>
+        <v>6.236451996157095</v>
       </c>
       <c r="N6" t="n">
-        <v>67.06346982852679</v>
+        <v>67.89390985650309</v>
       </c>
       <c r="O6" t="n">
-        <v>8.189228890959562</v>
+        <v>8.2397760804832</v>
       </c>
       <c r="P6" t="n">
-        <v>394.8900274554643</v>
+        <v>395.0098503555089</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15804,28 +15888,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03769364166686145</v>
+        <v>-0.05510475189625133</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K7" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001156789499791033</v>
+        <v>0.002406960756944687</v>
       </c>
       <c r="M7" t="n">
-        <v>6.323859143243713</v>
+        <v>6.401953330265524</v>
       </c>
       <c r="N7" t="n">
-        <v>65.17340526066158</v>
+        <v>67.13069966886387</v>
       </c>
       <c r="O7" t="n">
-        <v>8.073004723190838</v>
+        <v>8.193332635067605</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3133565830503</v>
+        <v>392.4869387884681</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15882,28 +15966,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1189356188246329</v>
+        <v>-0.134344691945561</v>
       </c>
       <c r="J8" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K8" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01495244783969207</v>
+        <v>0.0182367948738853</v>
       </c>
       <c r="M8" t="n">
-        <v>5.364137423753524</v>
+        <v>5.446987186598308</v>
       </c>
       <c r="N8" t="n">
-        <v>49.11277288716149</v>
+        <v>51.61835296645103</v>
       </c>
       <c r="O8" t="n">
-        <v>7.008050576812463</v>
+        <v>7.18459135695629</v>
       </c>
       <c r="P8" t="n">
-        <v>393.8323878255654</v>
+        <v>393.987061757492</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15960,28 +16044,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1006492758652028</v>
+        <v>-0.1285784239241999</v>
       </c>
       <c r="J9" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K9" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005478052145657997</v>
+        <v>0.008757218842378456</v>
       </c>
       <c r="M9" t="n">
-        <v>7.388371658261407</v>
+        <v>7.489057019909135</v>
       </c>
       <c r="N9" t="n">
-        <v>97.41156051817363</v>
+        <v>99.84779425466233</v>
       </c>
       <c r="O9" t="n">
-        <v>9.869729505826065</v>
+        <v>9.992386814703599</v>
       </c>
       <c r="P9" t="n">
-        <v>398.8022464059149</v>
+        <v>399.0841618405876</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16019,7 +16103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32067,6 +32151,94 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-36.60258622016624,175.54365589387191</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-36.60271312506394,175.54446244211204</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-36.60284831108209,175.54527704504147</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-36.603100704243964,175.54611160385227</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-36.60318193330865,175.54700262640583</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>-36.60311201770823,175.5478917551164</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>-36.60284824624978,175.54872899616709</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-36.60219628878636,175.5430153573727</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-36.602537691646155,175.54369408832153</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-36.6027487614915,175.54444944189223</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>-36.60280842129787,175.54780783568484</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>-36.60279606932183,175.54871067549536</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J332"/>
+  <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11833,6 +11833,114 @@
       <c r="J332" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>389.67</v>
+      </c>
+      <c r="D333" t="n">
+        <v>386.8892307692308</v>
+      </c>
+      <c r="E333" t="n">
+        <v>383.76</v>
+      </c>
+      <c r="F333" t="n">
+        <v>374.4009090909091</v>
+      </c>
+      <c r="G333" t="n">
+        <v>376.96</v>
+      </c>
+      <c r="H333" t="n">
+        <v>382.045</v>
+      </c>
+      <c r="I333" t="n">
+        <v>388.1118181818182</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>397.33</v>
+      </c>
+      <c r="C334" t="n">
+        <v>386.6809523809524</v>
+      </c>
+      <c r="D334" t="n">
+        <v>386.6861538461538</v>
+      </c>
+      <c r="E334" t="n">
+        <v>374.1209523809524</v>
+      </c>
+      <c r="F334" t="n">
+        <v>375.6527272727273</v>
+      </c>
+      <c r="G334" t="n">
+        <v>372.8509523809525</v>
+      </c>
+      <c r="H334" t="n">
+        <v>380.905</v>
+      </c>
+      <c r="I334" t="n">
+        <v>380.3654545454546</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>381.96</v>
+      </c>
+      <c r="C335" t="n">
+        <v>387.75</v>
+      </c>
+      <c r="D335" t="n">
+        <v>392.3376923076923</v>
+      </c>
+      <c r="E335" t="n">
+        <v>385.69</v>
+      </c>
+      <c r="F335" t="n">
+        <v>381.0327272727272</v>
+      </c>
+      <c r="G335" t="n">
+        <v>381.04</v>
+      </c>
+      <c r="H335" t="n">
+        <v>379.215</v>
+      </c>
+      <c r="I335" t="n">
+        <v>396.2654545454546</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11847,7 +11955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15325,6 +15433,36 @@
       </c>
       <c r="B347" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -15498,28 +15636,28 @@
         <v>0.0572</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1350728714814577</v>
+        <v>-0.1351965142177824</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01288300731200098</v>
+        <v>0.01313758621335626</v>
       </c>
       <c r="M2" t="n">
-        <v>7.093928001859675</v>
+        <v>7.088299633240196</v>
       </c>
       <c r="N2" t="n">
-        <v>77.23597422445182</v>
+        <v>76.91701238807202</v>
       </c>
       <c r="O2" t="n">
-        <v>8.788399980909597</v>
+        <v>8.77023445456688</v>
       </c>
       <c r="P2" t="n">
-        <v>395.4388020156887</v>
+        <v>395.4401236575956</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15576,28 +15714,28 @@
         <v>0.1153</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1200983232753202</v>
+        <v>-0.1299254501350428</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01926114077013719</v>
+        <v>0.02282546059973534</v>
       </c>
       <c r="M3" t="n">
-        <v>4.960291464790142</v>
+        <v>4.955426490306466</v>
       </c>
       <c r="N3" t="n">
-        <v>40.45251291044403</v>
+        <v>40.28846091530333</v>
       </c>
       <c r="O3" t="n">
-        <v>6.360228998270741</v>
+        <v>6.347319191225799</v>
       </c>
       <c r="P3" t="n">
-        <v>396.0194601155529</v>
+        <v>396.1165397320137</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15654,28 +15792,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03534354670552469</v>
+        <v>-0.04832116549868493</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001186211335574949</v>
+        <v>0.002244799381947993</v>
       </c>
       <c r="M4" t="n">
-        <v>5.681502705540578</v>
+        <v>5.683750531591443</v>
       </c>
       <c r="N4" t="n">
-        <v>57.26285065370261</v>
+        <v>57.18067489825269</v>
       </c>
       <c r="O4" t="n">
-        <v>7.567222122661829</v>
+        <v>7.561790455854532</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1483152509705</v>
+        <v>396.2770688629008</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15732,28 +15870,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03643319181165766</v>
+        <v>-0.06352666274639987</v>
       </c>
       <c r="J5" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K5" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001033694239912175</v>
+        <v>0.003114119032550655</v>
       </c>
       <c r="M5" t="n">
-        <v>5.926222704133766</v>
+        <v>6.014334704059222</v>
       </c>
       <c r="N5" t="n">
-        <v>68.90127706411381</v>
+        <v>70.24792056654067</v>
       </c>
       <c r="O5" t="n">
-        <v>8.300679313412475</v>
+        <v>8.381403257601955</v>
       </c>
       <c r="P5" t="n">
-        <v>395.7411583432449</v>
+        <v>396.0115628446588</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15810,28 +15948,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0241635096127965</v>
+        <v>-0.05839054782192764</v>
       </c>
       <c r="J6" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004584777250159489</v>
+        <v>0.002617148569356575</v>
       </c>
       <c r="M6" t="n">
-        <v>6.236451996157095</v>
+        <v>6.357079753128406</v>
       </c>
       <c r="N6" t="n">
-        <v>67.89390985650309</v>
+        <v>70.15531144182644</v>
       </c>
       <c r="O6" t="n">
-        <v>8.2397760804832</v>
+        <v>8.375876756604436</v>
       </c>
       <c r="P6" t="n">
-        <v>395.0098503555089</v>
+        <v>395.3526420632544</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15888,28 +16026,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05510475189625133</v>
+        <v>-0.08328426096173761</v>
       </c>
       <c r="J7" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K7" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002406960756944687</v>
+        <v>0.005439355742641983</v>
       </c>
       <c r="M7" t="n">
-        <v>6.401953330265524</v>
+        <v>6.497583518274075</v>
       </c>
       <c r="N7" t="n">
-        <v>67.13069966886387</v>
+        <v>68.48554720818728</v>
       </c>
       <c r="O7" t="n">
-        <v>8.193332635067605</v>
+        <v>8.275599507479038</v>
       </c>
       <c r="P7" t="n">
-        <v>392.4869387884681</v>
+        <v>392.7697811386283</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15966,28 +16104,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.134344691945561</v>
+        <v>-0.1536917665613296</v>
       </c>
       <c r="J8" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0182367948738853</v>
+        <v>0.02382311699526729</v>
       </c>
       <c r="M8" t="n">
-        <v>5.446987186598308</v>
+        <v>5.497761894572429</v>
       </c>
       <c r="N8" t="n">
-        <v>51.61835296645103</v>
+        <v>52.03669474768761</v>
       </c>
       <c r="O8" t="n">
-        <v>7.18459135695629</v>
+        <v>7.213646425192159</v>
       </c>
       <c r="P8" t="n">
-        <v>393.987061757492</v>
+        <v>394.1826751949069</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16044,28 +16182,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1285784239241999</v>
+        <v>-0.1427172603314399</v>
       </c>
       <c r="J9" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K9" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008757218842378456</v>
+        <v>0.01088750820227136</v>
       </c>
       <c r="M9" t="n">
-        <v>7.489057019909135</v>
+        <v>7.496759563175195</v>
       </c>
       <c r="N9" t="n">
-        <v>99.84779425466233</v>
+        <v>99.81931549338736</v>
       </c>
       <c r="O9" t="n">
-        <v>9.992386814703599</v>
+        <v>9.990961690117091</v>
       </c>
       <c r="P9" t="n">
-        <v>399.0841618405876</v>
+        <v>399.2277725150249</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16103,7 +16241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J332"/>
+  <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32239,6 +32377,162 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-36.602044497487526,175.54320728062098</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-36.6025489027966,175.5436852645725</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-36.60279896497173,175.54443112757122</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-36.60299351160798,175.54525262423502</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-36.603120377220314,175.54611159828755</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-36.603080703250434,175.54698968817718</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>-36.60293583947024,175.54784305623545</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>-36.60270285063134,175.54867794406704</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-36.60203863023712,175.54321469908552</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-36.60257164023952,175.54366736903245</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-36.60280072019865,175.54443048726083</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-36.60307956486431,175.5452381511803</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-36.603109099248435,175.5461116014776</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-36.60311752775969,175.54699439471824</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>-36.60294586408762,175.5478458272159</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>-36.60277000055758,175.54870152208707</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-36.60213559753634,175.543092094855</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-36.60256350808122,175.54367376946178</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-36.602751873030265,175.54444830679788</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-36.60297628140089,175.54525552213178</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-36.603060629358986,175.54611161518872</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-36.603044139059904,175.54698501491296</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>-36.602960725143014,175.54784993507428</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>-36.6026321702238,175.5486531264569</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J335"/>
+  <dimension ref="A1:J336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11939,6 +11939,38 @@
         <v>396.2654545454546</v>
       </c>
       <c r="J335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="n">
+        <v>418.1107692307692</v>
+      </c>
+      <c r="E336" t="n">
+        <v>397.6314285714286</v>
+      </c>
+      <c r="F336" t="n">
+        <v>389.2881818181818</v>
+      </c>
+      <c r="G336" t="n">
+        <v>382.8714285714286</v>
+      </c>
+      <c r="H336" t="n">
+        <v>387.025</v>
+      </c>
+      <c r="I336" t="n">
+        <v>393.8263636363636</v>
+      </c>
+      <c r="J336" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -11955,7 +11987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15463,6 +15495,16 @@
       </c>
       <c r="B350" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -15639,7 +15681,7 @@
         <v>-0.1351965142177824</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
         <v>261</v>
@@ -15717,7 +15759,7 @@
         <v>-0.1299254501350428</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
         <v>291</v>
@@ -15792,28 +15834,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04832116549868493</v>
+        <v>-0.03323827072518139</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002244799381947993</v>
+        <v>0.00103935670872024</v>
       </c>
       <c r="M4" t="n">
-        <v>5.683750531591443</v>
+        <v>5.74841079859815</v>
       </c>
       <c r="N4" t="n">
-        <v>57.18067489825269</v>
+        <v>58.73281030378013</v>
       </c>
       <c r="O4" t="n">
-        <v>7.561790455854532</v>
+        <v>7.663733444201992</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2770688629008</v>
+        <v>396.1269310656393</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15870,28 +15912,28 @@
         <v>0.1177</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06352666274639987</v>
+        <v>-0.0613670373148122</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003114119032550655</v>
+        <v>0.002926361056401539</v>
       </c>
       <c r="M5" t="n">
-        <v>6.014334704059222</v>
+        <v>6.004004572865808</v>
       </c>
       <c r="N5" t="n">
-        <v>70.24792056654067</v>
+        <v>70.05161746039801</v>
       </c>
       <c r="O5" t="n">
-        <v>8.381403257601955</v>
+        <v>8.369684430156134</v>
       </c>
       <c r="P5" t="n">
-        <v>396.0115628446588</v>
+        <v>395.9899437003799</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15948,28 +15990,28 @@
         <v>0.1264</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05839054782192764</v>
+        <v>-0.06136829638017572</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002617148569356575</v>
+        <v>0.002908251334424516</v>
       </c>
       <c r="M6" t="n">
-        <v>6.357079753128406</v>
+        <v>6.352562944912964</v>
       </c>
       <c r="N6" t="n">
-        <v>70.15531144182644</v>
+        <v>69.99454148392081</v>
       </c>
       <c r="O6" t="n">
-        <v>8.375876756604436</v>
+        <v>8.366274050252049</v>
       </c>
       <c r="P6" t="n">
-        <v>395.3526420632544</v>
+        <v>395.3825564822338</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16026,28 +16068,28 @@
         <v>0.1178</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.08328426096173761</v>
+        <v>-0.08841217164366266</v>
       </c>
       <c r="J7" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005439355742641983</v>
+        <v>0.006152657244509752</v>
       </c>
       <c r="M7" t="n">
-        <v>6.497583518274075</v>
+        <v>6.505033032044996</v>
       </c>
       <c r="N7" t="n">
-        <v>68.48554720818728</v>
+        <v>68.45509018443583</v>
       </c>
       <c r="O7" t="n">
-        <v>8.275599507479038</v>
+        <v>8.273759132609301</v>
       </c>
       <c r="P7" t="n">
-        <v>392.7697811386283</v>
+        <v>392.8214081309028</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16104,28 +16146,28 @@
         <v>0.0906</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1536917665613296</v>
+        <v>-0.1557701327170896</v>
       </c>
       <c r="J8" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K8" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02382311699526729</v>
+        <v>0.0246121636679919</v>
       </c>
       <c r="M8" t="n">
-        <v>5.497761894572429</v>
+        <v>5.491171540812148</v>
       </c>
       <c r="N8" t="n">
-        <v>52.03669474768761</v>
+        <v>51.89911103777052</v>
       </c>
       <c r="O8" t="n">
-        <v>7.213646425192159</v>
+        <v>7.204103763673211</v>
       </c>
       <c r="P8" t="n">
-        <v>394.1826751949069</v>
+        <v>394.2037495565468</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16182,28 +16224,28 @@
         <v>0.0598</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1427172603314399</v>
+        <v>-0.1437794370661588</v>
       </c>
       <c r="J9" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01088750820227136</v>
+        <v>0.01112131338177413</v>
       </c>
       <c r="M9" t="n">
-        <v>7.496759563175195</v>
+        <v>7.478679765815681</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81931549338736</v>
+        <v>99.51245720435291</v>
       </c>
       <c r="O9" t="n">
-        <v>9.990961690117091</v>
+        <v>9.975593075319026</v>
       </c>
       <c r="P9" t="n">
-        <v>399.2277725150249</v>
+        <v>399.2385980640372</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16241,7 +16283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J335"/>
+  <dimension ref="A1:J336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32533,6 +32575,50 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr"/>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-36.60252911209689,175.544529570123</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-36.60286967347858,175.54527345217394</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-36.60298625371343,175.54611163623153</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-36.60302772614226,175.546982917182</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>-36.60289204771938,175.54783095143551</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>-36.60265331366684,175.5486605504286</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0140/nzd0140.xlsx
+++ b/data/nzd0140/nzd0140.xlsx
@@ -15669,13 +15669,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0444</v>
+        <v>0.0735</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0572</v>
+        <v>0.1059</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1351965142177825</v>
@@ -15747,13 +15747,13 @@
         <v>0.1375131622719143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.0844</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1153</v>
+        <v>0.101</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1299160767300521</v>
@@ -15825,13 +15825,13 @@
         <v>0.2812901278193048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.0885</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0701</v>
+        <v>0.1908</v>
       </c>
       <c r="I4" t="n">
         <v>-0.03323018209826058</v>
@@ -15903,13 +15903,13 @@
         <v>0.4250663362525801</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0916</v>
+        <v>0.0896</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1177</v>
+        <v>0.1998</v>
       </c>
       <c r="I5" t="n">
         <v>-0.06135730949996038</v>
@@ -15981,13 +15981,13 @@
         <v>0.568711936575346</v>
       </c>
       <c r="F6" t="n">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1001</v>
+        <v>0.0888</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1264</v>
+        <v>0.1304</v>
       </c>
       <c r="I6" t="n">
         <v>-0.06139437951840011</v>
@@ -16059,13 +16059,13 @@
         <v>0.7126024919371998</v>
       </c>
       <c r="F7" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.092</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1178</v>
+        <v>0.1208</v>
       </c>
       <c r="I7" t="n">
         <v>-0.08840280814463798</v>
@@ -16137,13 +16137,13 @@
         <v>0.8563168421766041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0906</v>
+        <v>0.1399</v>
       </c>
       <c r="I8" t="n">
         <v>-0.1557915393422481</v>
@@ -16215,13 +16215,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0521</v>
+        <v>0.0678</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0598</v>
+        <v>0.1834</v>
       </c>
       <c r="I9" t="n">
         <v>-0.143759347184994</v>
